--- a/src/apodeixi/controllers/admin/static_data/tests_integration/results_data/static_data_flows.products/shutil_store/products.T15_form                products.static-data.admin.a6i.xlsx
+++ b/src/apodeixi/controllers/admin/static_data/tests_integration/results_data/static_data_flows.products/shutil_store/products.T15_form                products.static-data.admin.a6i.xlsx
@@ -62,7 +62,7 @@
     <t>static-data.admin.a6i.io/v1a</t>
   </si>
   <si>
-    <t>My Corporation</t>
+    <t>My Corp</t>
   </si>
   <si>
     <t>Testing Area</t>
